--- a/PROJECT 2/Tasks.xlsx
+++ b/PROJECT 2/Tasks.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -28,15 +28,18 @@
     <t>Morning workout</t>
   </si>
   <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>30-minute run</t>
+  </si>
+  <si>
+    <t>Call mom</t>
+  </si>
+  <si>
     <t>Not started</t>
   </si>
   <si>
-    <t>30-minute run</t>
-  </si>
-  <si>
-    <t>Call mom</t>
-  </si>
-  <si>
     <t>Spoke about weekend plans</t>
   </si>
   <si>
@@ -55,12 +58,18 @@
     <t>Read book</t>
   </si>
   <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>Continue 'Atomic Habits'</t>
   </si>
   <si>
     <t>Meal prep</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
     <t>Cook chicken &amp; veggies</t>
   </si>
   <si>
@@ -146,14 +155,30 @@
   </si>
   <si>
     <t>Early booking discount</t>
+  </si>
+  <si>
+    <t>Bring out the trash</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Help dad</t>
+  </si>
+  <si>
+    <t>Order food</t>
+  </si>
+  <si>
+    <t>Walk 100m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -192,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
@@ -222,11 +247,95 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,6 +352,33 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -303,7 +439,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D21" displayName="My_Tasks" name="My_Tasks" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D25" displayName="My_Tasks" name="My_Tasks" id="1">
   <tableColumns count="4">
     <tableColumn name="Task" id="1"/>
     <tableColumn name="Status" id="2"/>
@@ -549,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>45800.0</v>
+        <v>45892.0</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>6</v>
@@ -560,274 +696,322 @@
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45800.0</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45893.0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <v>45800.0</v>
+      <c r="C4" s="6">
+        <v>45894.0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45801.0</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45895.0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45801.0</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>45896.0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45801.0</v>
+        <v>18</v>
+      </c>
+      <c r="C7" s="6">
+        <v>45897.0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>45802.0</v>
+        <v>18</v>
+      </c>
+      <c r="C8" s="6">
+        <v>45898.0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45803.0</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>45899.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4">
-        <v>45803.0</v>
+      <c r="C10" s="6">
+        <v>45900.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4">
-        <v>45804.0</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>45901.0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>45804.0</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>45902.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
-        <v>45805.0</v>
+      <c r="C13" s="6">
+        <v>45903.0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>45805.0</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45904.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="4">
-        <v>45806.0</v>
+      <c r="C15" s="6">
+        <v>45905.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>45807.0</v>
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45906.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>45807.0</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="6">
+        <v>45907.0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="4">
-        <v>45808.0</v>
+      <c r="C18" s="6">
+        <v>45908.0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
-        <v>45809.0</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <v>45909.0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4">
-        <v>45810.0</v>
+        <v>18</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45910.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="4">
-        <v>45813.0</v>
+      <c r="C21" s="6">
+        <v>45911.0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="9">
+        <v>45892.0</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="9">
+        <v>45892.0</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="9">
+        <v>45892.0</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13">
+        <v>45892.0</v>
+      </c>
+      <c r="D25" s="14"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C21">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="C2:C25">
       <formula1>OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D"))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A21 D2:D21"/>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B21">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:A25 D2:D25"/>
+    <dataValidation type="list" allowBlank="1" sqref="B2:B25">
       <formula1>"Not started,In progress,Blocked,Completed"</formula1>
     </dataValidation>
   </dataValidations>
